--- a/DA/src/main/resources/excel-templates/info-template.xlsx
+++ b/DA/src/main/resources/excel-templates/info-template.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -212,27 +210,15 @@
     <t>#{tmanager}</t>
   </si>
   <si>
-    <t>#{yyb}</t>
-  </si>
-  <si>
     <t>#{yybManager}</t>
   </si>
   <si>
-    <t>#{fgs}</t>
-  </si>
-  <si>
     <t>#{fgsManager}</t>
   </si>
   <si>
-    <t>#{dq}</t>
-  </si>
-  <si>
     <t>#{dqManager}</t>
   </si>
   <si>
-    <t>#{syb}</t>
-  </si>
-  <si>
     <t>#{sybManager}</t>
   </si>
   <si>
@@ -258,9 +244,6 @@
   </si>
   <si>
     <t>#{statementDate}</t>
-  </si>
-  <si>
-    <t>#{surplusDate}</t>
   </si>
   <si>
     <t>#{status}</t>
@@ -378,6 +361,26 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>#{surplusDate}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{yybname}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{fgsname}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{dqname}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{sybname}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,6 +532,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,9 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,68 +846,70 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX8" sqref="AX8"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="51" max="51" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="43.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
     </row>
     <row r="2" spans="1:51" ht="36.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1087,141 +1092,141 @@
         <v>54</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AR3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AS3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AT3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AU3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AV3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AR3" s="5" t="s">
+      <c r="AW3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AS3" s="5" t="s">
+      <c r="AX3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AT3" s="5" t="s">
+      <c r="AY3" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="36.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>98</v>
+      <c r="A4" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1281,11 +1286,11 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1340,30 +1345,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DA/src/main/resources/excel-templates/info-template.xlsx
+++ b/DA/src/main/resources/excel-templates/info-template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <r>
       <t>$</t>
@@ -148,27 +148,6 @@
   </si>
   <si>
     <t>汇入银行</t>
-  </si>
-  <si>
-    <t>银行支行名称</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>开户人姓名</t>
-  </si>
-  <si>
-    <t>开卡省份</t>
-  </si>
-  <si>
-    <t>开卡城市</t>
-  </si>
-  <si>
-    <t>银行行号</t>
-  </si>
-  <si>
-    <t>汇款银行</t>
   </si>
   <si>
     <t>出借人地址</t>
@@ -380,6 +359,54 @@
   </si>
   <si>
     <t>#{sybname}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入银行支行名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入银行账号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入银行开户人姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入银行开卡省份</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入银行开卡城市</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入银行行号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款银行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款银行支行名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款银行账号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款银行开户人姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款银行开卡省份</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款银行开卡城市</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -845,14 +872,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1015,218 +1056,218 @@
         <v>34</v>
       </c>
       <c r="AI2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="I3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="O3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AR3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AS3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AT3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AU3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AV3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AW3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AX3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="5" t="s">
+      <c r="AY3" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="36.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1287,7 +1328,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
